--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efna4</t>
+  </si>
+  <si>
+    <t>Epha1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efna4</t>
-  </si>
-  <si>
-    <t>Epha1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H2">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I2">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J2">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N2">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O2">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P2">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q2">
-        <v>3.124204544040889</v>
+        <v>5.891407804216223</v>
       </c>
       <c r="R2">
-        <v>28.117840896368</v>
+        <v>53.022670237946</v>
       </c>
       <c r="S2">
-        <v>0.08987367615326849</v>
+        <v>0.1129731818386819</v>
       </c>
       <c r="T2">
-        <v>0.08987367615326852</v>
+        <v>0.1129731818386819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H3">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I3">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J3">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.110785</v>
       </c>
       <c r="O3">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P3">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q3">
-        <v>3.644554952100556</v>
+        <v>4.405225216753889</v>
       </c>
       <c r="R3">
-        <v>32.800994568905</v>
+        <v>39.647026950785</v>
       </c>
       <c r="S3">
-        <v>0.1048425437164941</v>
+        <v>0.08447425912300989</v>
       </c>
       <c r="T3">
-        <v>0.1048425437164941</v>
+        <v>0.08447425912300988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H4">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I4">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J4">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N4">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O4">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P4">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q4">
-        <v>2.308004878232222</v>
+        <v>6.503993798790889</v>
       </c>
       <c r="R4">
-        <v>20.77204390409</v>
+        <v>58.53594418911801</v>
       </c>
       <c r="S4">
-        <v>0.0663941429129718</v>
+        <v>0.1247200836415729</v>
       </c>
       <c r="T4">
-        <v>0.0663941429129718</v>
+        <v>0.1247200836415729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H5">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I5">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J5">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N5">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O5">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P5">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q5">
-        <v>1.532764110373778</v>
+        <v>1.583347771593667</v>
       </c>
       <c r="R5">
-        <v>13.794876993364</v>
+        <v>14.250129944343</v>
       </c>
       <c r="S5">
-        <v>0.04409287014764764</v>
+        <v>0.0303621547953461</v>
       </c>
       <c r="T5">
-        <v>0.04409287014764765</v>
+        <v>0.0303621547953461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>4.612615</v>
       </c>
       <c r="I6">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J6">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N6">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O6">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P6">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q6">
-        <v>5.760077808115555</v>
+        <v>8.986371369865555</v>
       </c>
       <c r="R6">
-        <v>51.84070027304</v>
+        <v>80.87734232878999</v>
       </c>
       <c r="S6">
-        <v>0.1656995757629341</v>
+        <v>0.1723219645584878</v>
       </c>
       <c r="T6">
-        <v>0.1656995757629341</v>
+        <v>0.1723219645584878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>4.612615</v>
       </c>
       <c r="I7">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J7">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.110785</v>
       </c>
       <c r="O7">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P7">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q7">
         <v>6.719444839197222</v>
@@ -883,10 +883,10 @@
         <v>60.475003552775</v>
       </c>
       <c r="S7">
-        <v>0.1932975901208659</v>
+        <v>0.1288515561815893</v>
       </c>
       <c r="T7">
-        <v>0.1932975901208659</v>
+        <v>0.1288515561815893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>4.612615</v>
       </c>
       <c r="I8">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J8">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N8">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O8">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P8">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q8">
-        <v>4.255255215438889</v>
+        <v>9.920770315952222</v>
       </c>
       <c r="R8">
-        <v>38.29729693895</v>
+        <v>89.28693284357</v>
       </c>
       <c r="S8">
-        <v>0.1224104964290252</v>
+        <v>0.1902399267084811</v>
       </c>
       <c r="T8">
-        <v>0.1224104964290252</v>
+        <v>0.1902399267084811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>4.612615</v>
       </c>
       <c r="I9">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J9">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N9">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O9">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P9">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q9">
-        <v>2.825948305491111</v>
+        <v>2.415136000771667</v>
       </c>
       <c r="R9">
-        <v>25.43353474942</v>
+        <v>21.736224006945</v>
       </c>
       <c r="S9">
-        <v>0.08129376910293043</v>
+        <v>0.04631246174896614</v>
       </c>
       <c r="T9">
-        <v>0.08129376910293043</v>
+        <v>0.04631246174896615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3210486666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H10">
-        <v>0.9631460000000001</v>
+        <v>0.941388</v>
       </c>
       <c r="I10">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J10">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.746298666666667</v>
+        <v>5.844648666666667</v>
       </c>
       <c r="N10">
-        <v>11.238896</v>
+        <v>17.533946</v>
       </c>
       <c r="O10">
-        <v>0.2944715732214049</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="P10">
-        <v>0.294471573221405</v>
+        <v>0.3204643139023235</v>
       </c>
       <c r="Q10">
-        <v>1.202744191868445</v>
+        <v>1.834027373005334</v>
       </c>
       <c r="R10">
-        <v>10.824697726816</v>
+        <v>16.506246357048</v>
       </c>
       <c r="S10">
-        <v>0.03459922052843493</v>
+        <v>0.03516916750515395</v>
       </c>
       <c r="T10">
-        <v>0.03459922052843494</v>
+        <v>0.03516916750515395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3210486666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H11">
-        <v>0.9631460000000001</v>
+        <v>0.941388</v>
       </c>
       <c r="I11">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J11">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.110785</v>
       </c>
       <c r="O11">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748354</v>
       </c>
       <c r="P11">
-        <v>0.3435171466234404</v>
+        <v>0.2396231127748355</v>
       </c>
       <c r="Q11">
-        <v>1.403066681067778</v>
+        <v>1.371370629953333</v>
       </c>
       <c r="R11">
-        <v>12.62760012961</v>
+        <v>12.34233566958</v>
       </c>
       <c r="S11">
-        <v>0.0403618773156987</v>
+        <v>0.0262972974702363</v>
       </c>
       <c r="T11">
-        <v>0.0403618773156987</v>
+        <v>0.0262972974702363</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3210486666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H12">
-        <v>0.9631460000000001</v>
+        <v>0.941388</v>
       </c>
       <c r="I12">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J12">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.767576666666667</v>
+        <v>6.452372666666666</v>
       </c>
       <c r="N12">
-        <v>8.30273</v>
+        <v>19.357118</v>
       </c>
       <c r="O12">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="P12">
-        <v>0.2175407589083977</v>
+        <v>0.3537860524377295</v>
       </c>
       <c r="Q12">
-        <v>0.8885267987311113</v>
+        <v>2.024728733309333</v>
       </c>
       <c r="R12">
-        <v>7.996741188580001</v>
+        <v>18.222558599784</v>
       </c>
       <c r="S12">
-        <v>0.02556016055830151</v>
+        <v>0.03882604208767557</v>
       </c>
       <c r="T12">
-        <v>0.02556016055830151</v>
+        <v>0.03882604208767557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3210486666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H13">
-        <v>0.9631460000000001</v>
+        <v>0.941388</v>
       </c>
       <c r="I13">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J13">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.837969333333334</v>
+        <v>1.570781</v>
       </c>
       <c r="N13">
-        <v>5.513908000000001</v>
+        <v>4.712343</v>
       </c>
       <c r="O13">
-        <v>0.1444705212467569</v>
+        <v>0.08612652088511148</v>
       </c>
       <c r="P13">
-        <v>0.1444705212467569</v>
+        <v>0.0861265208851115</v>
       </c>
       <c r="Q13">
-        <v>0.590077603840889</v>
+        <v>0.492904794676</v>
       </c>
       <c r="R13">
-        <v>5.310698434568001</v>
+        <v>4.436143152084</v>
       </c>
       <c r="S13">
-        <v>0.01697470275243241</v>
+        <v>0.009451904340799252</v>
       </c>
       <c r="T13">
-        <v>0.01697470275243242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.119675</v>
-      </c>
-      <c r="I14">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J14">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.746298666666667</v>
-      </c>
-      <c r="N14">
-        <v>11.238896</v>
-      </c>
-      <c r="O14">
-        <v>0.2944715732214049</v>
-      </c>
-      <c r="P14">
-        <v>0.294471573221405</v>
-      </c>
-      <c r="Q14">
-        <v>0.1494460976444444</v>
-      </c>
-      <c r="R14">
-        <v>1.3450148788</v>
-      </c>
-      <c r="S14">
-        <v>0.004299100776767438</v>
-      </c>
-      <c r="T14">
-        <v>0.004299100776767438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.119675</v>
-      </c>
-      <c r="I15">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J15">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>4.370261666666667</v>
-      </c>
-      <c r="N15">
-        <v>13.110785</v>
-      </c>
-      <c r="O15">
-        <v>0.3435171466234404</v>
-      </c>
-      <c r="P15">
-        <v>0.3435171466234404</v>
-      </c>
-      <c r="Q15">
-        <v>0.1743370216527778</v>
-      </c>
-      <c r="R15">
-        <v>1.569033194875</v>
-      </c>
-      <c r="S15">
-        <v>0.005015135470381689</v>
-      </c>
-      <c r="T15">
-        <v>0.005015135470381688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.119675</v>
-      </c>
-      <c r="I16">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J16">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.767576666666667</v>
-      </c>
-      <c r="N16">
-        <v>8.30273</v>
-      </c>
-      <c r="O16">
-        <v>0.2175407589083977</v>
-      </c>
-      <c r="P16">
-        <v>0.2175407589083977</v>
-      </c>
-      <c r="Q16">
-        <v>0.1104032458611111</v>
-      </c>
-      <c r="R16">
-        <v>0.99362921275</v>
-      </c>
-      <c r="S16">
-        <v>0.003175959008099222</v>
-      </c>
-      <c r="T16">
-        <v>0.003175959008099222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.119675</v>
-      </c>
-      <c r="I17">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J17">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.837969333333334</v>
-      </c>
-      <c r="N17">
-        <v>5.513908000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.1444705212467569</v>
-      </c>
-      <c r="P17">
-        <v>0.1444705212467569</v>
-      </c>
-      <c r="Q17">
-        <v>0.0733196599888889</v>
-      </c>
-      <c r="R17">
-        <v>0.6598769399000001</v>
-      </c>
-      <c r="S17">
-        <v>0.002109179243746378</v>
-      </c>
-      <c r="T17">
-        <v>0.002109179243746378</v>
+        <v>0.009451904340799252</v>
       </c>
     </row>
   </sheetData>
